--- a/PycharmProjects/데이터수집기/navernews.xlsx
+++ b/PycharmProjects/데이터수집기/navernews.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C401"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7238,6 +7238,1706 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>"낮은 수익률, 안녕"…12일부터 '퇴직연금 디폴트옵션' 시행</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>머니투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>"이제 안녕" 다음 블로그, 17년 만에 서비스 종료</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>한국경제TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>[사진]이민혁, '안녕'</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2년 함께했던 '노는언니2'… 마지막 눈물의 '안녕'</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>KCM, 안녕하모니카~[포토엔HD]</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>[포토] 우주소녀 엑시, 안녕하세요~</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>아시아투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>태국서 ‘안녕 K-푸드’ 프로모션… 김치 담가 시식도</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>한국무역신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>[S포토] 우주소녀 연정, '안녕~' (쇼케이스)</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>스타데일리뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>[머니S포토] 우주소녀 설아 '안녕~'</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>[사진]프로미스나인 장규리, '안녕 프로미'</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>안녕 박용택 "우승 반지 대신 여러분의 사랑을 끼고 은퇴"</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>일간스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>[포토] 우주소녀 엑시, 안녕하세요~</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>아시아투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>딱딱한 학교는 이제 안녕…교육공간 톡톡 튀는 변신</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>국제신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>'노는언니2', 100회 특집 끝으로 잠시만 안녕…2년 여정 총정리</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>우리 사회 김용균, 그리고 김용균‘들’은 안녕한가요?</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>경향신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>태국서 ‘안녕 K-푸드’ 프로모션… 김치 담가 시식도</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>한국무역신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>축사 악취냄새 안녕… 축산악취개선 공모에 전남 6개 시군 선정</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>서울신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>더위야 안녕</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>[포토]박용택 은퇴식, 웃으며 안녕~</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>[S포토] 우주소녀 연정, '안녕~' (쇼케이스)</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>스타데일리뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>서울시립중랑노인종합복지관, “치매야, 안녕!” 프로그램 참여자 모집</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>브레이크뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>'창단 10주년' 몽상공장, 연극 '안녕 와이키키' 선보여</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>여성신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>김건희 여사, 기내 깜짝 등장…"안녕하세요, 감사합니다" 기자단 첫 인사</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>죽향초, 일상회복 심리·정서 통합지원 프로그램 '안녕, 마음아'운영</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>불교공뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>정인화 광양시장 취임…"시민의 안녕과 행복 시정의 최우선 가치"</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>[ST포토] 우주소녀 엑시, '예쁘게 안녕~'</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>스포츠투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>포항 장기면 계원1리, 어민 안녕 기원 ‘풍어제’ 성료</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>경상매일신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>'그라운드여 안녕' 은퇴식 박용택[포토]</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>스포츠서울</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>몽상공장, 연극 '안녕 와이키키' 선보인다</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>뉴스브라이트</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>뮤 수파싯 '안녕 한국'[★포토]</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>'더위 안녕'</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>한국 언론 정신질환 보도는 '안녕'한가요?</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>미디어오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>헤이즈문 '아파트는 아름다워' OST 가창…'안녕'</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>[S포토] 엔하이픈 정원, '안녕 정원이야~' (쇼케이스)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>스타데일리뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>[포토S] '영구결번' 박용택, 뜨겁게 안녕</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>스포티비뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>[ST포토] 우주소녀 여름, '안녕~'</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>스포츠투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>정인화 광양시장 "새 광양시대, '시민의 안녕과 행복' 최우선"</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>남도일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>[안녕? 자연] 남극 물고기 사이 피부암 확산…원인은 “기후 변화” 지적</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>서울신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>안녕하지 못한 개인정보… 4년 새 침해 신고·상담 2배 이상 급증</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>세계일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>부산국제어린이청소년영화제 7월8일 개막…개막작 '안녕, 시네마 천국'</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>[bnt포토] 송민호 '안녕'</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>bnt뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>'이수♥' 린, 몸만 한 가방 들고 룰루랄라 "7월 안녕" [스타IN★]</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>[포토] 박해일 '멜로 잠시만 안녕'</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>일간스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>[bnt포토] 혜리 '안녕하세요'</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>bnt뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>지독했던 슬럼프 안녕…메이저에서 부활했다, 전인지 답게</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>일간스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>카자흐스탄을 뜨겁게 달군 '안녕! 케이팝 페스타'</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>뉴스1</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>"안녕~베트남!" 에어부산, '인천-나트랑' 노선 신규 취항</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>글로벌경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>[헬스S] "심장·혈관, 무더위에 안녕하십니까"</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>머니S</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>[T포토] 민희 '우리팬들 안녕~'</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>TV리포트</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>몬스타엑스 기현 '우리팬들 안녕'[★포토]</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>스타뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>크래비티 원진 ‘안녕~’[포토엔HD]</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[포토IN] 원효로1가 28-1, '아랫마을 야학 안녕'</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>시사IN</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>'보르도 안녕~' 황의조, 유럽 5개국서 러브콜...다음 행선지는?</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>안녕 6월 [아프리카 케냐 나정희 선교사]</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>CTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>호국영령·충북도민 안녕 기원 '도량게' 나비춤</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>안녕하신가영이 부른 ‘현재는아름다워’</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>스포츠경향</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>'무더운 여름 숨 막힘은 이제 안녕' 기능성 속옷 라티오25 런칭</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>뉴스로드</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>여보, 이제 안녕...</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>"여러분 안녕, 그동안 고마웠습니다"</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>충청투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>[안녕, 그림책] ‘화가가 된 할머니’ 外</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>매일신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>[포토] '룰러' 박재혁 "안녕하세요"</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>데일리e스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>[포토] 수지 '유월 안녕, 장마도 안녕~'</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>일간스포츠</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>캠핑장 무더위 안녕! '신일 무선 캠핑팬' 출시</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>정보통신신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>리버풀 “마네 안녕, 마누라도 안녕”</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>서울신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>전라남도자원봉사센터, '안녕 가고싶은 섬' 볼런투어 진행</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>NSP통신</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>'마이큐♥' 김나영, 행복한 여름 바캉스...'7월 안녕'[TEN★]</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>텐아시아</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>이태환, 잠시만 안녕…27일 현역 입대</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>‘요금 갈등 안녕’…서울시, 위치 기반 택시 미터기 본격 도입</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"G+ 마음아 안녕, 오늘 안녕!" </t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>고양신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>김희재 '더쇼 안녕~'[엑's HD포토]</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>고양시대화노인종합복지관, ‘G+마음아 안녕, 오늘안녕!’ 진행</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>시민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>"안녕하세요 '하나증권'입니다"</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>이코노믹리뷰</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>"안녕하세요 강성규입니다" 장성규, 강제 '개명'에도 웃어넘기는 대인배</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>"당신 덕분에 안녕합니다”...말(馬)들이 전하는 희망 메시지</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>JIBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>이펙스 금동현, 안녕~ [포토엔HD]</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>의령자굴산모임, 자굴산 군민안녕기원제 봉행</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>이뉴스투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>[줌인IT] 20억 원샷 치료제 건보 적용 임박…국가 재정은 안녕한가?</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>IT조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>안녕 케이팝 페스타에 열광하는 관람객들</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>[노트북을 열며] 안녕, 공매도</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>중앙일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>인천시 강화군 양사면 지역사회보장협의체, ‘안녕하세요? 어르신’ 사업 시행</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>시민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>[사진]블랙핑크 리사,'여러분 안녕'</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>OSEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>이무진 "하루 만에 달라진 삶"…자취방과 '안녕'하고 첫 미니앨범 [종합]</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>윤 대통령 용산 집들이 "안녕하세요! 새로 이사 온 대통령입니다"</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>해남군, 친환경 도시숲 조성...'미세먼지 안녕'</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>농업경제신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>블랙핑크 리사 '여러분 안녕~'[엑's HD포토]</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>엑스포츠뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>'호국영령·충북도민' 안녕 비나이다</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>충청투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>'앤디♥' 이은주, 제주MBC 퇴사…과감히 원고 집어 던지며 '안녕'</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>스포츠조선</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>안녕, 아르보레아...그리고 즐거웠어! 추억 가득한 테라, PC 서비스 종료</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>인벤</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>안녕, 컵스 팬이니? 난 보토라고 해…추신수 절친, 어린 팬에게 추억 선물</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>스포티비뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>어지러운 세상은 잠시 안녕…"요가는 지금 나에게 집중하는 시간"</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>한국경제</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>[포토] 박보검, 안녕하세요~</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>아시아투데이</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>[현장포토] "끝까지, 안녕"…박보검, 친절한 입국</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>디스패치</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>라잇썸 히나, 안녕안녕~ [포토엔HD]</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>뉴스엔</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>[그때 그 뉴스] 13년 전 오늘‥안녕, 마이클 잭슨</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>MBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>'이젠 안녕' 빠르게 리뷰하는 리버풀 리빙 레전드 마네</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>골닷컴</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>의령자굴산모임， 산정상서 군민 안녕제 봉행</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>경남매일신문</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>24세에 무려 '17년' 경력… 아약스, 유스 출신 마즈라위와 '뜨거운 안녕'</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>베스트일레븐</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>[bnt포토] 방탄소년단 뷔 '안녕, 아미'</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>bnt뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>의령자굴산모임, 군민안녕기원제 봉행</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>뉴스경남</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>[S포토] 선미, '여러분 안녕~'</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>스타데일리뉴스</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
